--- a/tetscas.xlsx
+++ b/tetscas.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
-    <t>Name cas test</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Datedenaissance</t>
+  </si>
+  <si>
+    <t>Name_cas_test</t>
   </si>
 </sst>
 </file>
@@ -483,9 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -494,33 +492,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2">
         <v>19126</v>
@@ -528,16 +526,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>19492</v>
@@ -545,16 +543,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2">
         <v>19128</v>
@@ -562,16 +560,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2">
         <v>19129</v>
@@ -579,16 +577,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2">
         <v>19130</v>
@@ -596,16 +594,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2">
         <v>19131</v>
@@ -613,16 +611,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2">
         <v>19132</v>
@@ -630,16 +628,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2">
         <v>19133</v>
@@ -647,16 +645,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2">
         <v>19134</v>
